--- a/medicine/Soins infirmiers et profession infirmière/Échelle_de_Waterlow/Échelle_de_Waterlow.xlsx
+++ b/medicine/Soins infirmiers et profession infirmière/Échelle_de_Waterlow/Échelle_de_Waterlow.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89chelle_de_Waterlow</t>
+          <t>Échelle_de_Waterlow</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'échelle de Waterlow est une échelle d'évaluation du risque d'escarre, créée en 1985 par Mrs Waterlow en Grande-Bretagne, très utilisé au niveau européen[1]. Cette échelle est utilisée chez les sujets plutôt jeunes, car elle est peu utilisable chez le sujet âgé puisqu’elle affecte un score très important à l’âge[2],[3],[4].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'échelle de Waterlow est une échelle d'évaluation du risque d'escarre, créée en 1985 par Mrs Waterlow en Grande-Bretagne, très utilisé au niveau européen. Cette échelle est utilisée chez les sujets plutôt jeunes, car elle est peu utilisable chez le sujet âgé puisqu’elle affecte un score très important à l’âge.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89chelle_de_Waterlow</t>
+          <t>Échelle_de_Waterlow</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,50 +523,291 @@
           <t>Facteurs pris en compte</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette échelle permet à l'équipe soignante d'évaluer le risque que le patient développe une escarre et facilite la communication entre les différents acteurs du soin. On attribue un certain nombre de points à différents facteurs intrinsèques ou extrinsèques (le nombre de points attribué aux différents facteurs peut varier légèrement) :
-La masse corporelle
-Rapport poids/taille (un seul choix possible), appréciation clinique ou IMC (indice de masse corporelle)
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette échelle permet à l'équipe soignante d'évaluer le risque que le patient développe une escarre et facilite la communication entre les différents acteurs du soin. On attribue un certain nombre de points à différents facteurs intrinsèques ou extrinsèques (le nombre de points attribué aux différents facteurs peut varier légèrement) :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Échelle_de_Waterlow</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Soins infirmiers et profession infirmière/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89chelle_de_Waterlow</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Facteurs pris en compte</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>La masse corporelle</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Rapport poids/taille (un seul choix possible), appréciation clinique ou IMC (indice de masse corporelle)
 moyenne = 0
 au-dessus de la moyenne = 1
 obèse = 2
-en dessous de la moyenne = 3
-La continence
-Un seul choix est possible :
+en dessous de la moyenne = 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Échelle_de_Waterlow</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Soins infirmiers et profession infirmière/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89chelle_de_Waterlow</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Facteurs pris en compte</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>La continence</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Un seul choix est possible :
 totale ou sonde urinaire = 0
 occasionnellement incontinent (accident, fuite) = 1
 incontinence fécale seule ou incontinence urinaire seule = 2
-incontinence urinaire et fécale = 3
-L'aspect visuel de la peau
-Plusieurs choix sont possibles, le score maximal est 5 :
+incontinence urinaire et fécale = 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Échelle_de_Waterlow</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Soins infirmiers et profession infirmière/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89chelle_de_Waterlow</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Facteurs pris en compte</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>L'aspect visuel de la peau</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Plusieurs choix sont possibles, le score maximal est 5 :
 saine = 0
 fine / grêle = 1
 sèche / déshydratée = 1
 œdémateuse = 1
 état de transpiration (peau molle, échauffée) = 1
 décolorée = 2
-irritation cutanée = 3
-La mobilité
-Un seul choix est possible :
+irritation cutanée = 3</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Échelle_de_Waterlow</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Soins infirmiers et profession infirmière/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89chelle_de_Waterlow</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Facteurs pris en compte</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>La mobilité</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Un seul choix est possible :
 complète = 0
 agité = 1
 apathique = 2
 restreinte = 3
 immobile / traction = 4
-patient mis au fauteuil = 5
-Le sexe
-masculin = 1
-féminin = 2
-L'âge
-0 à 13 ans = 0
+patient mis au fauteuil = 5</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Échelle_de_Waterlow</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Soins infirmiers et profession infirmière/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89chelle_de_Waterlow</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Facteurs pris en compte</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Le sexe</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>masculin = 1
+féminin = 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Échelle_de_Waterlow</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Soins infirmiers et profession infirmière/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89chelle_de_Waterlow</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Facteurs pris en compte</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>L'âge</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>0 à 13 ans = 0
 14 à 49 ans = 1
 50 à 64 ans = 2
 65 à 74 ans = 3
 75 à 90 ans = 4
-&gt; 90 ans = 5
-L’appétit
-Un seul choix est possible :
+&gt; 90 ans = 5</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Échelle_de_Waterlow</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Soins infirmiers et profession infirmière/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89chelle_de_Waterlow</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Facteurs pris en compte</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>L’appétit</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Un seul choix est possible :
 moyen = 0
 faible = 1
 alimentation par sonde gastrique uniquement = 2
@@ -562,79 +815,188 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>%C3%89chelle_de_Waterlow</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Soins infirmiers et profession infirmière/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89chelle_de_Waterlow</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Échelle_de_Waterlow</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Soins infirmiers et profession infirmière/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89chelle_de_Waterlow</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Les risques particuliers</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Malnutrition des tissus
-Plusieurs choix sont possibles :
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Malnutrition des tissus</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Plusieurs choix sont possibles :
 cachexie terminale = 8
 déficience cardiaque = 5
 insuffisance vasculaire périphérique = 5
 anémie = 2
-tabagisme = 1
-Déficience neurologique
-diabète, sclérose en plaques, AVC, déficit sensoriel, paraplégies = 4 à 6
-Chirurgie ou traumatisme
-orthopédie (partie inférieure) = 5
+tabagisme = 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Échelle_de_Waterlow</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Soins infirmiers et profession infirmière/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89chelle_de_Waterlow</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Les risques particuliers</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Déficience neurologique</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>diabète, sclérose en plaques, AVC, déficit sensoriel, paraplégies = 4 à 6</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Échelle_de_Waterlow</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Soins infirmiers et profession infirmière/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89chelle_de_Waterlow</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Les risques particuliers</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Chirurgie ou traumatisme</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>orthopédie (partie inférieure) = 5
 colonne = 5
-intervention de + de 2 heures = 5
-Médicaments
-cytotoxiques = 4
+intervention de + de 2 heures = 5</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Échelle_de_Waterlow</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Soins infirmiers et profession infirmière/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89chelle_de_Waterlow</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Les risques particuliers</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Médicaments</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>cytotoxiques = 4
 corticoïdes à haute dose = 4
 anti-inflammatoires = 4</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>%C3%89chelle_de_Waterlow</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Soins infirmiers et profession infirmière/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/%C3%89chelle_de_Waterlow</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Échelle_de_Waterlow</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Soins infirmiers et profession infirmière/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89chelle_de_Waterlow</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>Résultats</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plus le résultat est haut, plus le risque d'escarre est élevé. Un résultat en dessous de 10 signifie que le risque d'escarre est inexistant[5].
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plus le résultat est haut, plus le risque d'escarre est élevé. Un résultat en dessous de 10 signifie que le risque d'escarre est inexistant.
 Le  patient  est  considéré  :
 à  risque si  le  score  &gt;  10
 à haut  risque si  le  score  &gt;  15
